--- a/public/VendorImportSample.xlsx
+++ b/public/VendorImportSample.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\pms excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E834F5C-7A6C-4CCC-A841-F6D279DCD248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>vendorname</t>
   </si>
@@ -39,32 +33,50 @@
     <t>branchname</t>
   </si>
   <si>
-    <t>ifsccode</t>
-  </si>
-  <si>
-    <t>accountnumber</t>
-  </si>
-  <si>
-    <t>Subham</t>
-  </si>
-  <si>
-    <t>Subham Shop</t>
-  </si>
-  <si>
-    <t>SBI</t>
-  </si>
-  <si>
-    <t>CS. Pur</t>
-  </si>
-  <si>
-    <t>SBI075845</t>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>servicetax</t>
+  </si>
+  <si>
+    <t>gst</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>bankaccountno</t>
+  </si>
+  <si>
+    <t>ifsc</t>
+  </si>
+  <si>
+    <t>santosh</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>fdssdf</t>
+  </si>
+  <si>
+    <t>dsfsdfsd</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +199,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,68 +408,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>9658541254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>1010101010214570</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>11</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>9856586523</v>
       </c>
     </row>
   </sheetData>
@@ -502,24 +509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
